--- a/code_smell_detection/Code_Smells.xlsx
+++ b/code_smell_detection/Code_Smells.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="31">
   <si>
     <t>MethodID</t>
   </si>
@@ -57,34 +57,46 @@
     <t>MongoWorker</t>
   </si>
   <si>
+    <t>cloudClient)</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>localClient)</t>
+  </si>
+  <si>
     <t>killThread()</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>enableThread()</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>run()</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>35</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>docs)</t>
@@ -93,13 +105,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>44</t>
+    <t>11</t>
   </si>
 </sst>
 </file>
@@ -144,7 +150,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -284,10 +290,10 @@
         <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K4" t="s">
         <v>18</v>
@@ -296,7 +302,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -305,7 +311,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -320,10 +326,10 @@
         <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K5" t="s">
         <v>18</v>
@@ -332,7 +338,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -341,22 +347,22 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
         <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
       </c>
       <c r="J6" t="s">
         <v>27</v>
@@ -368,52 +374,74 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7"/>
-    </row>
-    <row r="8">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
       <c r="L8"/>
     </row>
     <row r="9">
@@ -542,6 +570,20 @@
       <c r="K17"/>
       <c r="L17"/>
     </row>
+    <row r="18">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/code_smell_detection/Code_Smells.xlsx
+++ b/code_smell_detection/Code_Smells.xlsx
@@ -44,7 +44,7 @@
     <t>CYCLO_method</t>
   </si>
   <si>
-    <t>is_Long_Method</t>
+    <t>is_long_method</t>
   </si>
   <si>
     <t>1</t>

--- a/code_smell_detection/Code_Smells.xlsx
+++ b/code_smell_detection/Code_Smells.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="137">
   <si>
     <t>MethodID</t>
   </si>
@@ -50,70 +50,379 @@
     <t>1</t>
   </si>
   <si>
-    <t>sid_g_1.cloudToMongo</t>
-  </si>
-  <si>
-    <t>MongoWorker</t>
-  </si>
-  <si>
-    <t>MongoWorker(String,String,MongoClient,String,String,MongoClient)</t>
+    <t>client</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Cliente()</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>addFrameContent()</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>open()</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>clienteReceive(ArrayList&lt;Result&gt;)</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>main(String[])</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>ClientResult</t>
+  </si>
+  <si>
+    <t>ClientResult(int)</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
+    <t>getResults()</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>addResult(Result)</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>getClientID()</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>ServerHandlerC</t>
+  </si>
+  <si>
+    <t>ServerHandlerC(Cliente,Socket,ObjectOutputStream,ObjectInputStream)</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>run()</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>enviaString(String)</t>
+  </si>
+  <si>
+    <t>gui</t>
+  </si>
+  <si>
+    <t>BlockingQueue</t>
+  </si>
+  <si>
+    <t>BlockingQueue()</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>BlockingQueue(int)</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>addTarefa(T)</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>obterTarefa()</t>
+  </si>
+  <si>
+    <t>size()</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>clear()</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>getFila()</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>addResult(int,Result)</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>isProcessing(int)</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Result(int)</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Result(String,int)</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>setFirstLine(String)</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>getIndexs()</t>
+  </si>
+  <si>
+    <t>addIndex(Integer)</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>getCount()</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>getTexto()</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>setTexto(String)</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>getTitulo()</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>toString()</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>server</t>
+  </si>
+  <si>
+    <t>ClientHandler</t>
+  </si>
+  <si>
+    <t>ClientHandler(Servidor,int,Socket,ServerSocket,ObjectOutputStream,ObjectInputStream)</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>envia(ArrayList&lt;Result&gt;)</t>
+  </si>
+  <si>
+    <t>Servidor</t>
+  </si>
+  <si>
+    <t>Servidor()</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>loadFiles()</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>receive(String,int)</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>getTarefasParaExecutar(int)</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>adicionaResultado(Result,int,int)</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>enviaResultadosCliente(int)</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>utils</t>
+  </si>
+  <si>
+    <t>Tarefa</t>
+  </si>
+  <si>
+    <t>Tarefa(File,String,int,int,int)</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>44</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>setCloudClient(MongoClient)</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>setLocalClient(MongoClient)</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>killThread()</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>enableThread()</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>run()</t>
-  </si>
-  <si>
-    <t>insertIntoLocalDB(List&lt;Document&gt;)</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>MongoWorker.InnerClass</t>
-  </si>
-  <si>
-    <t>accessMembers()</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>getIdCliente()</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>getStatus()</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>getNoticia()</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>getPalavraPesquisada()</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>getTarefaID()</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>getIdWorker()</t>
+  </si>
+  <si>
+    <t>getResult()</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>setResult(Result)</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>worker</t>
+  </si>
+  <si>
+    <t>Comparador</t>
+  </si>
+  <si>
+    <t>compare(Result,Result)</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>Worker</t>
+  </si>
+  <si>
+    <t>Worker(Servidor,int)</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>searchWord(String,File,int)</t>
+  </si>
+  <si>
+    <t>56</t>
   </si>
 </sst>
 </file>
@@ -158,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -229,7 +538,7 @@
         <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
@@ -265,7 +574,7 @@
         <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
         <v>17</v>
@@ -274,7 +583,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -283,7 +592,7 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -298,7 +607,7 @@
         <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -310,7 +619,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -319,7 +628,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -334,10 +643,10 @@
         <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
         <v>17</v>
@@ -346,7 +655,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -355,7 +664,7 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -370,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -382,22 +691,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -406,7 +715,7 @@
         <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -418,22 +727,22 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
@@ -442,10 +751,10 @@
         <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K8" t="s">
         <v>17</v>
@@ -454,179 +763,1907 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J31" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" t="s">
+        <v>36</v>
+      </c>
+      <c r="J33" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" t="s">
+        <v>54</v>
+      </c>
+      <c r="J34" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" t="s">
+        <v>34</v>
+      </c>
+      <c r="J35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" t="s">
+        <v>57</v>
+      </c>
+      <c r="J36" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" t="s">
+        <v>94</v>
+      </c>
+      <c r="G37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" t="s">
+        <v>45</v>
+      </c>
+      <c r="J37" t="s">
+        <v>19</v>
+      </c>
+      <c r="K37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" t="s">
+        <v>94</v>
+      </c>
+      <c r="G38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" t="s">
+        <v>73</v>
+      </c>
+      <c r="J38" t="s">
+        <v>15</v>
+      </c>
+      <c r="K38" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" t="s">
+        <v>94</v>
+      </c>
+      <c r="G39" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" t="s">
+        <v>94</v>
+      </c>
+      <c r="G40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" t="s">
+        <v>94</v>
+      </c>
+      <c r="G41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" t="s">
+        <v>34</v>
+      </c>
+      <c r="J41" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" t="s">
+        <v>94</v>
+      </c>
+      <c r="G42" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" t="s">
+        <v>59</v>
+      </c>
+      <c r="J42" t="s">
+        <v>22</v>
+      </c>
+      <c r="K42" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" t="s">
         <v>27</v>
       </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9"/>
-    </row>
-    <row r="10">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-    </row>
-    <row r="11">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-    </row>
-    <row r="12">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-    </row>
-    <row r="13">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-    </row>
-    <row r="14">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-    </row>
-    <row r="15">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-    </row>
-    <row r="16">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-    </row>
-    <row r="17">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-    </row>
-    <row r="18">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-    </row>
-    <row r="19">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
+      <c r="E43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G43" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" t="s">
+        <v>22</v>
+      </c>
+      <c r="J43" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" t="s">
+        <v>110</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" t="s">
+        <v>36</v>
+      </c>
+      <c r="J44" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" t="s">
+        <v>17</v>
+      </c>
+      <c r="L44"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" t="s">
+        <v>110</v>
+      </c>
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" t="s">
+        <v>17</v>
+      </c>
+      <c r="L45"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" t="s">
+        <v>114</v>
+      </c>
+      <c r="E46" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" t="s">
+        <v>110</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" t="s">
+        <v>22</v>
+      </c>
+      <c r="J46" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" t="s">
+        <v>17</v>
+      </c>
+      <c r="L46"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" t="s">
+        <v>116</v>
+      </c>
+      <c r="E47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47" t="s">
+        <v>110</v>
+      </c>
+      <c r="G47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" t="s">
+        <v>22</v>
+      </c>
+      <c r="J47" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" t="s">
+        <v>17</v>
+      </c>
+      <c r="L47"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" t="s">
+        <v>118</v>
+      </c>
+      <c r="E48" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" t="s">
+        <v>110</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J48" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" t="s">
+        <v>17</v>
+      </c>
+      <c r="L48"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" t="s">
+        <v>120</v>
+      </c>
+      <c r="E49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F49" t="s">
+        <v>110</v>
+      </c>
+      <c r="G49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" t="s">
+        <v>22</v>
+      </c>
+      <c r="J49" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" t="s">
+        <v>17</v>
+      </c>
+      <c r="L49"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" t="s">
+        <v>122</v>
+      </c>
+      <c r="E50" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50" t="s">
+        <v>110</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" t="s">
+        <v>22</v>
+      </c>
+      <c r="J50" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" t="s">
+        <v>17</v>
+      </c>
+      <c r="L50"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" t="s">
+        <v>123</v>
+      </c>
+      <c r="E51" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" t="s">
+        <v>110</v>
+      </c>
+      <c r="G51" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" t="s">
+        <v>22</v>
+      </c>
+      <c r="J51" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" t="s">
+        <v>17</v>
+      </c>
+      <c r="L51"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" t="s">
+        <v>125</v>
+      </c>
+      <c r="E52" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52" t="s">
+        <v>110</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" t="s">
+        <v>24</v>
+      </c>
+      <c r="J52" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" t="s">
+        <v>17</v>
+      </c>
+      <c r="L52"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53" t="s">
+        <v>85</v>
+      </c>
+      <c r="E53" t="s">
+        <v>38</v>
+      </c>
+      <c r="F53" t="s">
+        <v>110</v>
+      </c>
+      <c r="G53" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54" t="s">
+        <v>130</v>
+      </c>
+      <c r="E54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" t="s">
+        <v>24</v>
+      </c>
+      <c r="J54" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" t="s">
+        <v>17</v>
+      </c>
+      <c r="L54"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" t="s">
+        <v>128</v>
+      </c>
+      <c r="C55" t="s">
+        <v>132</v>
+      </c>
+      <c r="D55" t="s">
+        <v>133</v>
+      </c>
+      <c r="E55" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" t="s">
+        <v>110</v>
+      </c>
+      <c r="G55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" t="s">
+        <v>24</v>
+      </c>
+      <c r="J55" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" t="s">
+        <v>17</v>
+      </c>
+      <c r="L55"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56" t="s">
+        <v>135</v>
+      </c>
+      <c r="E56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" t="s">
+        <v>110</v>
+      </c>
+      <c r="G56" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56" t="s">
+        <v>69</v>
+      </c>
+      <c r="J56" t="s">
+        <v>15</v>
+      </c>
+      <c r="K56" t="s">
+        <v>17</v>
+      </c>
+      <c r="L56"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" t="s">
+        <v>43</v>
+      </c>
+      <c r="E57" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" t="s">
+        <v>110</v>
+      </c>
+      <c r="G57" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" t="s">
+        <v>57</v>
+      </c>
+      <c r="J57" t="s">
+        <v>24</v>
+      </c>
+      <c r="K57" t="s">
+        <v>17</v>
+      </c>
+      <c r="L57"/>
+    </row>
+    <row r="58">
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+    </row>
+    <row r="59">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+    </row>
+    <row r="60">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+    </row>
+    <row r="61">
+      <c r="A61"/>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+    </row>
+    <row r="62">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+    </row>
+    <row r="63">
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+    </row>
+    <row r="64">
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+    </row>
+    <row r="65">
+      <c r="A65"/>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+    </row>
+    <row r="66">
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+    </row>
+    <row r="67">
+      <c r="A67"/>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/code_smell_detection/Code_Smells.xlsx
+++ b/code_smell_detection/Code_Smells.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="33">
   <si>
     <t>MethodID</t>
   </si>
@@ -50,7 +50,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>sid_g_1.cloudToMongo</t>
+    <t>default</t>
   </si>
   <si>
     <t>MongoWorker</t>
@@ -62,13 +62,10 @@
     <t>7</t>
   </si>
   <si>
-    <t>44</t>
+    <t>50</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>11</t>
   </si>
   <si>
     <t>2</t>
@@ -226,7 +223,7 @@
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -238,7 +235,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -247,7 +244,7 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -262,7 +259,7 @@
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -274,7 +271,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -283,7 +280,7 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -298,7 +295,7 @@
         <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -310,7 +307,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -319,7 +316,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -334,7 +331,7 @@
         <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -346,7 +343,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -355,7 +352,7 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -370,7 +367,7 @@
         <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -382,7 +379,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -391,7 +388,7 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
@@ -406,7 +403,7 @@
         <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -427,7 +424,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
@@ -442,10 +439,10 @@
         <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8" t="s">
         <v>17</v>
@@ -454,31 +451,31 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>31</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
       <c r="H9" t="s">
         <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>

--- a/code_smell_detection/Code_Smells.xlsx
+++ b/code_smell_detection/Code_Smells.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="36">
   <si>
     <t>MethodID</t>
   </si>
@@ -62,7 +62,10 @@
     <t>7</t>
   </si>
   <si>
-    <t>50</t>
+    <t>70</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
   <si>
     <t/>
@@ -77,6 +80,12 @@
     <t>setCloudClient(MongoClient)</t>
   </si>
   <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -95,9 +104,6 @@
     <t>enableThread()</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>run()</t>
   </si>
   <si>
@@ -114,9 +120,6 @@
   </si>
   <si>
     <t>accessMembers()</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -223,25 +226,25 @@
         <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -250,7 +253,7 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -259,25 +262,25 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -286,7 +289,7 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -295,25 +298,25 @@
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -322,7 +325,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -331,25 +334,25 @@
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -358,7 +361,7 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -367,25 +370,25 @@
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -394,7 +397,7 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
@@ -403,19 +406,19 @@
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L7"/>
     </row>
@@ -430,7 +433,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
@@ -439,55 +442,55 @@
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L9"/>
     </row>

--- a/code_smell_detection/Code_Smells.xlsx
+++ b/code_smell_detection/Code_Smells.xlsx
@@ -14878,7 +14878,7 @@
         <v>11</v>
       </c>
       <c r="F331" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G331" t="s">
         <v>892</v>
@@ -14887,7 +14887,7 @@
         <v>18</v>
       </c>
       <c r="I331" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J331" t="s">
         <v>893</v>
@@ -15742,7 +15742,7 @@
         <v>27</v>
       </c>
       <c r="F355" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="G355" t="s">
         <v>963</v>
@@ -15751,7 +15751,7 @@
         <v>18</v>
       </c>
       <c r="I355" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J355" t="s">
         <v>964</v>
@@ -15778,7 +15778,7 @@
         <v>27</v>
       </c>
       <c r="F356" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="G356" t="s">
         <v>963</v>
@@ -15814,7 +15814,7 @@
         <v>27</v>
       </c>
       <c r="F357" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="G357" t="s">
         <v>963</v>
@@ -15850,7 +15850,7 @@
         <v>27</v>
       </c>
       <c r="F358" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="G358" t="s">
         <v>963</v>
@@ -15859,7 +15859,7 @@
         <v>18</v>
       </c>
       <c r="I358" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="J358" t="s">
         <v>972</v>

--- a/code_smell_detection/Code_Smells.xlsx
+++ b/code_smell_detection/Code_Smells.xlsx
@@ -2288,7 +2288,7 @@
     <t>String&gt;getProjectStatsFromExcel(String[][])</t>
   </si>
   <si>
-    <t>558</t>
+    <t>559</t>
   </si>
   <si>
     <t>22925</t>
@@ -13267,7 +13267,7 @@
         <v>18</v>
       </c>
       <c r="I286" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="J286" t="s">
         <v>769</v>
